--- a/Data/NFLSeasonStatDescriptions.xlsx
+++ b/Data/NFLSeasonStatDescriptions.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9285" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Statistic Categories" sheetId="1" r:id="rId1"/>
-    <sheet name="TeamNames" sheetId="2" r:id="rId2"/>
-    <sheet name="Example JSON Tree" sheetId="3" r:id="rId3"/>
+    <sheet name="TeamNames" sheetId="2" r:id="rId1"/>
+    <sheet name="Example JSON Tree" sheetId="3" r:id="rId2"/>
+    <sheet name="Statistic Categories" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
   <si>
     <t>NFLDB Stat</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>"2"</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>"17"</t>
   </si>
 </sst>
 </file>
@@ -708,10 +714,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A32">
+    <sortCondition ref="A1:A32"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,374 +1269,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A1:A32">
-    <sortCondition ref="A1:A32"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data/NFLSeasonStatDescriptions.xlsx
+++ b/Data/NFLSeasonStatDescriptions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TeamNames" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="88">
   <si>
     <t>NFLDB Stat</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>"17"</t>
+  </si>
+  <si>
+    <t>Rushing Touchdowns:6 points</t>
   </si>
 </sst>
 </file>
@@ -894,7 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1017,7 +1020,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>85</v>
       </c>
@@ -1092,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1200,9 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1229,7 +1234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
@@ -1238,7 +1243,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
@@ -1247,7 +1252,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
         <v>12</v>
@@ -1256,7 +1261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
         <v>31</v>
